--- a/ptest.xlsx
+++ b/ptest.xlsx
@@ -326,9 +326,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -345,6 +346,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -390,8 +398,15 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -412,21 +427,22 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H17" activeCellId="0" pane="topLeft" sqref="H17"/>
+      <selection activeCell="E7" activeCellId="0" pane="topLeft" sqref="E7"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -437,13 +453,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -454,13 +470,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -471,13 +487,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -777,17 +793,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -802,17 +819,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
